--- a/excel/Shiller_PE.xlsx
+++ b/excel/Shiller_PE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -715,7 +715,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-409]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -748,7 +748,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6EF56A-5682-4EAC-824F-5B749C932AA8}">
-  <dimension ref="A1:B1644"/>
+  <dimension ref="A1:B1647"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A1619" workbookViewId="0">
+      <selection activeCell="D1648" sqref="D1648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14228,6 +14228,30 @@
         <v>32.270000000000003</v>
       </c>
     </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1645" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B1645" s="2">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1646" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B1646" s="2">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1647" s="1">
+        <v>43136</v>
+      </c>
+      <c r="B1647" s="2">
+        <v>33.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
